--- a/src/Rapport Fournisseur_0.xlsx
+++ b/src/Rapport Fournisseur_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,20 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>PVC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
@@ -514,7 +524,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>843091</t>
+          <t>105147</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -529,7 +539,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Avocat Hass / Vrac 20 pcs - 4 kg / Cat. I / Afrique du Sud</t>
+          <t>Abricot / Plateau 5 kg / AA (45-49 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -546,23 +556,29 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -573,7 +589,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>098934</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -588,7 +604,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+          <t>Prune Mirabelle / Vrac 5 kg / 22+ / Cat. I / France</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -605,23 +621,29 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -632,7 +654,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>031551</t>
+          <t>103707</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -647,7 +669,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fruit de la passion / Vrac 36 pcs - 2 kg / Cat. I / Colombie</t>
+          <t>Pomme Granny Smith / 1 rang 4 kg / 20 F (190-220 g) / Cat. I / Afrique du Sud</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -664,23 +686,29 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -691,12 +719,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>043576</t>
+          <t>136825</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C35</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -706,7 +734,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mangues / Vrac 7 pcs - 4 kg / Cat. I / Côte d'Ivoire</t>
+          <t>Kiwi Jaunes / Vrac 52 pcs - 5,7 kg / 33 (85-95g) / Cat. I / Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -723,23 +751,29 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -750,7 +784,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>021471</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -765,7 +799,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Melons / Vrac 15 pcs - 11 kg / 15L (650-800 g) / Cat. I / Espagne</t>
+          <t>Choux Blancs / Vrac 6 pcs - 13 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -782,23 +816,29 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -809,12 +849,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>062765</t>
+          <t>077064</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -824,7 +864,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Maroc</t>
+          <t>Carotte Sable / Vrac 12 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -841,27 +881,29 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Origine: Eurofel Espagne Excel maroc </t>
-        </is>
-      </c>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -872,12 +914,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>100386</t>
+          <t>753960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -887,7 +929,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nectarines Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Poireau / Vrac 10 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -904,27 +946,29 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pas d'origine: Excel espagne </t>
-        </is>
-      </c>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -935,12 +979,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>078451</t>
+          <t>140562</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -950,7 +994,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Oranges / Vrac 15 kg / 7 / Cat. I / Egypte</t>
+          <t>Fraises / Barquettes 10x500 g / Cat. I / France</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -967,27 +1011,29 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Origine: Eurofel Afrique Du Sud Excel egypte </t>
-        </is>
-      </c>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -998,7 +1044,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>116631</t>
+          <t>135793</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1013,7 +1059,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tomates Allongées / Roma / Vrac 6 kg / G / 8 (67-82 mm) / Cat. I / France</t>
+          <t>Pomme Pink Lady® / Vrac 4 kg / Cat. I / Afrique du Sud</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1030,23 +1076,29 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1057,7 +1109,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>123223</t>
+          <t>021681</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1072,7 +1124,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
+          <t>Choux Verts / Vrac 6 pcs - 10 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1089,23 +1141,29 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,60</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1116,12 +1174,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>261578</t>
+          <t>754190</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1131,7 +1189,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 5 kg / Cat. I / Belgique</t>
+          <t>Artichaut Blanc / Plateau 15 pcs - 7,3 kg / 15 pcs / Cat. I / France</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1156,19 +1214,21 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Origine: Eurofel Pays-Bas Excel belgique </t>
-        </is>
-      </c>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1179,12 +1239,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAJSER</t>
+          <t>254616</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1194,40 +1254,46 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FRAIS LOGISTIQUE</t>
+          <t>Tomates Cerises / Barquettes 12x250 g / Cat. I / France</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CARREFOUR SUPPLIER</t>
+          <t>MEYER GROUP</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>638561</t>
+          <t>373720</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1238,7 +1304,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>120171</t>
+          <t>281185</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1253,7 +1319,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Belgique</t>
+          <t>Melons / Vrac 9 pcs - 14 kg / 9 (1350-1750 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1270,23 +1336,29 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,60</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1329,23 +1401,29 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1356,12 +1434,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>140583</t>
+          <t>081842</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C37</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1371,7 +1449,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fraises / Barquettes 10x500 g / Cat. I / Espagne</t>
+          <t>Carottes / Vrac 12 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1388,23 +1466,29 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,30</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1415,7 +1499,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>101621</t>
+          <t>099432</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1430,7 +1514,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nectarines Blanches / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Pomme Golden / 1 rang 4 kg / 15 (265-305 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1447,27 +1531,29 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pas d'origine: Excel espagne </t>
-        </is>
-      </c>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1478,7 +1564,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>099769</t>
+          <t>102981</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1493,7 +1579,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pêches Jaunes / Plateau 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Pomme Jazz™ / 1 rang 4 kg / 18 (201-240 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1510,23 +1596,29 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1537,7 +1629,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>120394</t>
+          <t>098830</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1552,7 +1644,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Poivrons Rouges / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Belgique</t>
+          <t>Citrons / Vrac 6 kg / 3/35 (62-72 mm) / Cat. I / Afrique du Sud</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1569,23 +1661,33 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas d'origine: Excel afrique du sud </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1596,7 +1698,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>100414</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1611,7 +1713,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
+          <t>Nectarines Jaunes / Vrac 4,5 kg / B (61-67 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1628,23 +1730,29 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1655,7 +1763,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>116209</t>
+          <t>098899</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1670,7 +1778,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Asperges blanches / Vrac 5 kg / &gt;22 mm / Cat. I / France</t>
+          <t>Prunes Reine Claude / Vrac 5 kg / 35-40 / Cat. I / France</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1687,23 +1795,29 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1714,7 +1828,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>843120</t>
+          <t>116648</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1729,7 +1843,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Avocat Hass / Plateau 18 pcs - 4 kg / Cat. I / Pérou</t>
+          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1746,23 +1860,29 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1773,12 +1893,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>011529</t>
+          <t>120495</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C35</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1788,7 +1908,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Melons / Vrac 11 pcs - 13 kg / 11 (1150-1350 g) / Cat. I / Espagne</t>
+          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1805,27 +1925,29 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pas d'origine: Excel espagne </t>
-        </is>
-      </c>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1836,12 +1958,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>011385</t>
+          <t>120956</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1851,7 +1973,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Melons / Vrac 12 pcs - 8 kg / 12Q (950-1150 g) / Cat. I / Espagne</t>
+          <t>Poivrons Rouges / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1868,27 +1990,29 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,60</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Origine: Eurofel Maroc Excel espagne </t>
-        </is>
-      </c>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1899,7 +2023,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>100916</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1914,7 +2038,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
+          <t>Champignon blanc (pied coupé) / Vrac 3 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1931,23 +2055,29 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,70</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1958,7 +2088,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>101913</t>
+          <t>121963</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1973,7 +2103,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Belgique</t>
+          <t>Concombres / Vrac 12 pcs - 5 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1990,23 +2120,29 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2017,7 +2153,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>114642</t>
+          <t>120171</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2032,7 +2168,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bananes / Vrac 19 kg / Cat. I / Côte d'Ivoire</t>
+          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2049,23 +2185,29 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2076,7 +2218,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>081842</t>
+          <t>098511</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2091,7 +2233,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Carottes / Vrac 12 kg / Cat. I / France</t>
+          <t>Petits pois / Vrac 5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2108,23 +2250,29 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2135,12 +2283,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>556800</t>
+          <t>021195</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>C58</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2150,7 +2298,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Champignon de Paris Blanc / Barquettes 12x200 g / Cat. I / Pologne</t>
+          <t>Choux-fleurs / Vrac 6 pcs - 8 kg / Cat. EXTRA / France</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2167,27 +2315,29 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pas d'origine: Excel pologne </t>
-        </is>
-      </c>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2198,12 +2348,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>031285</t>
+          <t>078811</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2213,7 +2363,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ananas Extra Sweet / Vrac 8 pcs - 12 kg / A8 (1500-1800 g) / Cat. I / Costa Rica</t>
+          <t>Pommes de terre primeur / Vrac 13 kg / Cat. I / Italie</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2230,23 +2380,29 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2257,7 +2413,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>099338</t>
+          <t>116616</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2272,7 +2428,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Champignon à farcir / Vrac 2 kg / Cat. I / Pologne</t>
+          <t>Poivrons Jaunes / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2289,27 +2445,29 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2,60</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pas d'origine: Excel pologne </t>
-        </is>
-      </c>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2320,7 +2478,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>122114</t>
+          <t>122546</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2335,7 +2493,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Concombres / Plateau 12 pcs - 5,4 kg / 12G (500-600 g) / Cat. I / France</t>
+          <t>Tomates grappe / Vrac 10 kg / Cat. EXTRA / France</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2352,23 +2510,29 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2379,7 +2543,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>754190</t>
+          <t>076850</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2394,7 +2558,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Artichaut Blanc / Plateau 15 pcs - 7,3 kg / 15 pcs / Cat. I / France</t>
+          <t>Navets ronds violets / Vrac 5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2411,23 +2575,29 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2438,7 +2608,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>114644</t>
+          <t>099190</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2453,7 +2623,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bananes / Vrac 19 kg / Cat. I / France</t>
+          <t>Tomates rondes / Vrac 6 kg / 67+ / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2470,23 +2640,29 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2497,12 +2673,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>617113</t>
+          <t>121944</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2512,7 +2688,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fraises / Mini colis 1x1 kg / Cat. I / Espagne</t>
+          <t>Concombres / Vrac 12 pcs - 4,5 kg / 12M (400-500 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2529,27 +2705,29 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Pas d'origine: Excel espagne Le libélé ne match contacte Antoine il comprendra, c'est pas grave verifie juste a la main et ca sera corriger plus tards tkt pas ca va bien se passer</t>
-        </is>
-      </c>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2560,12 +2738,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>011302</t>
+          <t>101423</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2575,7 +2753,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Melons Charentais / - 12 pcs - 10 kg / 12L (800-950 g) / Cat. I / France</t>
+          <t>Pomme Jonagored / 1 rang 4,5 kg / 15F (230-265) / Cat. I / France</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2592,7 +2770,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -2600,15 +2778,21 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2619,7 +2803,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>100304</t>
+          <t>124688</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2634,7 +2818,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pêches plates Blanches / Vrac 5 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Prune Rouge / Vrac 5 kg / 50-55 mm / Cat. I / France</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2651,23 +2835,29 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2678,7 +2868,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>077433</t>
+          <t>118610</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2693,7 +2883,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Poires Conférence / Vrac 4,5 kg / 75-80 mm / Cat. I / Belgique</t>
+          <t>Raisins Red Globe / Vrac 6 kg / Cat. I / Italie</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2710,23 +2900,29 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2737,7 +2933,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>120958</t>
+          <t>102158</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2752,7 +2948,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Belgique</t>
+          <t>Pêches Blanches / Vrac 4,5 kg / A26 (67-73 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2769,322 +2965,29 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Origine: Eurofel Espagne Excel belgique </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>901</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>099432</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>373720</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>1,70</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>901</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>135788</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Pomme Pink Lady® / Vrac 4,5 kg / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>373720</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>901</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>099505</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Pomme Royal Gala / 1 rang 4,5 kg / 16 F (230-270 g) / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>373720</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>901</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>146515</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Pomme Chantecler / 1 rang 4,5 kg / 16 (230-270 g) / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>373720</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>901</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>099190</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Tomates rondes / Vrac 6 kg / 67+ / Cat. I / Belgique</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>373720</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
